--- a/data/trans_bre/IP18A05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A05-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,22 +620,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>8,46</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,44</t>
+          <t>12,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,17 +645,17 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>55,48%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 0,0</t>
+          <t>-19,13; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,5</t>
+          <t>0,0; 27,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,68; -1,84</t>
+          <t>0,0; 61,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-77,7; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-6,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>60,39%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-53,71%</t>
+          <t>55,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,43</t>
+          <t>-2,74; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,2</t>
+          <t>-1,43; 1,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,82</t>
+          <t>-1,06; 2,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,8</t>
+          <t>-14,68; -1,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,7; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,22 +920,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,86</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>211,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-61,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-40,7%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 0,0</t>
+          <t>-1,9; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 3,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,76</t>
+          <t>-6,04; 0,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,74</t>
+          <t>-18,71; 6,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>60,39%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>211,52%</t>
+          <t>-0,82%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-61,32%</t>
+          <t>-53,71%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-40,7%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 0,0</t>
+          <t>-1,16; 2,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,11</t>
+          <t>-1,87; 1,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 0,7</t>
+          <t>-2,25; 0,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 6,7</t>
+          <t>0,0; 9,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">

--- a/data/trans_bre/IP18A05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A05-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 0,0</t>
+          <t>-21,34; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,76</t>
+          <t>0,0; 27,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,35</t>
+          <t>0,0; 4,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,27; -0,02</t>
+          <t>-5,95; -0,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 0,0</t>
+          <t>-2,97; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,78</t>
+          <t>0,0; 26,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 0,0</t>
+          <t>-2,03; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,46</t>
+          <t>-1,38; 1,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,5</t>
+          <t>-1,06; 2,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,68; -1,84</t>
+          <t>-15,82; -1,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-77,7; —</t>
+          <t>-71,01; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 0,0</t>
+          <t>-1,74; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,11</t>
+          <t>-0,43; 3,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 0,7</t>
+          <t>-5,99; 0,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 6,7</t>
+          <t>-17,71; 6,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 125,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,43</t>
+          <t>-1,12; 2,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 1,2</t>
+          <t>-1,58; 1,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,8</t>
+          <t>0,0; 10,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,85</t>
+          <t>-0,66; 0,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,55</t>
+          <t>-1,12; 0,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,87</t>
+          <t>-1,3; 0,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 2,32</t>
+          <t>-6,34; 2,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-76,8; 389,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-73,59; 98,6</t>
+          <t>-72,24; 101,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-65,93; 126,33</t>
+          <t>-65,72; 95,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-89,48; 116,21</t>
+          <t>-89,86; 141,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A05-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 0,0</t>
+          <t>-24,54; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,11</t>
+          <t>0,0; 33,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,74</t>
+          <t>0,0; 62,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,36</t>
+          <t>0,0; 4,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,95; -0,11</t>
+          <t>-6,6; -0,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,0</t>
+          <t>-3,03; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,31</t>
+          <t>0,0; 21,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-100,0; 129,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,46</t>
+          <t>-1,53; 1,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,45</t>
+          <t>-1,34; 2,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,82; -1,73</t>
+          <t>-15,77; -1,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-71,01; —</t>
+          <t>-82,98; 1024,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 0,0</t>
+          <t>-2,21; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,16</t>
+          <t>-0,43; 2,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 0,76</t>
+          <t>-6,21; 0,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 6,86</t>
+          <t>-19,31; 6,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 125,15</t>
+          <t>-100,0; 114,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,49</t>
+          <t>-1,1; 2,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 1,55</t>
+          <t>-1,59; 1,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,82</t>
+          <t>-2,28; 0,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,25</t>
+          <t>0,0; 9,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,82</t>
+          <t>-0,74; 0,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,59</t>
+          <t>-1,14; 0,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 0,76</t>
+          <t>-1,36; 0,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 2,19</t>
+          <t>-6,14; 2,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,85; 345,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-72,24; 101,19</t>
+          <t>-72,22; 97,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-65,72; 95,82</t>
+          <t>-66,94; 112,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-89,86; 141,94</t>
+          <t>-87,11; 134,37</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A05-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP18A05-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,37 +620,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,86</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>55,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>197,88%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 0,0</t>
+          <t>-1,69; 2,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,27; -0,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,91</t>
+          <t>-0,49; 4,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,82</t>
+          <t>0,0; 20,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>-6,44</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-80,19%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>55,48%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,43</t>
+          <t>-2,74; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,6; -0,31</t>
+          <t>-1,43; 1,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 0,0</t>
+          <t>-1,06; 2,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,03</t>
+          <t>-14,5; -1,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 129,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,7; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,22 +820,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,44</t>
+          <t>-3,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -845,17 +845,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>211,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>55,48%</t>
+          <t>-61,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-42,2%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 0,0</t>
+          <t>-1,9; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,16</t>
+          <t>-0,43; 3,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,26</t>
+          <t>-6,04; 0,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,77; -1,72</t>
+          <t>-18,08; 6,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-82,98; 1024,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,36</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>60,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>211,52%</t>
+          <t>-0,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-61,32%</t>
+          <t>-53,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-40,7%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,0</t>
+          <t>-1,16; 2,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 2,84</t>
+          <t>-1,87; 1,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 0,46</t>
+          <t>-2,25; 0,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 6,49</t>
+          <t>0,0; 10,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 114,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>60,39%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>-24,12%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-53,71%</t>
+          <t>-18,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-33,54%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,56</t>
+          <t>-0,66; 0,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 1,55</t>
+          <t>-1,15; 0,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 0,83</t>
+          <t>-1,32; 0,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,87</t>
+          <t>-6,51; 2,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,8; 389,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,59; 98,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,93; 126,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,06; 125,86</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-1,55</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>9,77%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-24,12%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-18,5%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-34,99%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,74; 0,74</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-1,14; 0,57</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,36; 0,88</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-6,14; 2,48</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-79,85; 345,96</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-72,22; 97,87</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-66,94; 112,85</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-87,11; 134,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
